--- a/biology/Zoologie/Azuré_bétique/Azuré_bétique.xlsx
+++ b/biology/Zoologie/Azuré_bétique/Azuré_bétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_b%C3%A9tique</t>
+          <t>Azuré_bétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyommatus  golgus
 L’Azuré bétique, Polyommatus (Plebicula) golgus, est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Polyommatus.
-Cette espèce est l'une des quatre espèces de papillons méditerranéens endémiques de l'Espagne (Euchloe bazae, Polyommatus golgus, Polyommatus violetae et Plebejus zullichi) menacés de disparition et faisant l'objet d'un plan de restauration, sous l'égide de "Butterfly Conservation Europe" pour la survie à long terme de ces espèces[1].
+Cette espèce est l'une des quatre espèces de papillons méditerranéens endémiques de l'Espagne (Euchloe bazae, Polyommatus golgus, Polyommatus violetae et Plebejus zullichi) menacés de disparition et faisant l'objet d'un plan de restauration, sous l'égide de "Butterfly Conservation Europe" pour la survie à long terme de ces espèces.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_b%C3%A9tique</t>
+          <t>Azuré_bétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyommatus golgus (Hübner, 1813).
-Synonyme : Papilio golgus Hübner, [1813].
+Synonyme : Papilio golgus Hübner, .
 Combinaison valide : Plebicula golgus.
 Nom vernaculaire : l’Azuré bétique ou Argus turquoise se nomme en anglais Nevada Blue.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_b%C3%A9tique</t>
+          <t>Azuré_bétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu, celui de la femelle est marron, orné d'une ligne submarginale de larges macules orange. Les deux ont leurs ailes bordées d'une frange blanche.
 Leur revers est ocre clair orné d'une ligne submarginale de lunules blanches centrées d'un point noir plus ou moins marqué, discrètement surmontées d'orange, et d'une ligne de points noirs cerclés de blanc.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_b%C3%A9tique</t>
+          <t>Azuré_bétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles sont soignées par les fourmis, Tapinoma nigerrimum.
 Il hiverne à l'état de jeune chenille.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_b%C3%A9tique</t>
+          <t>Azuré_bétique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Distribution: Il est présent en Espagne dans la Sierra Nevada, provinces de Grenade et d'Almeria (Ibáñez &amp; Gil-T., 2009), de 2 500 à 3 000 m.
 Plante hôte : Anthyllis vulneraria pseudoarundana, une plante endémique de la Sierra Nevada, sud de l'Andalousie (S. Espagne).
